--- a/src/main/webapp/resources/templates/template_점수.xlsx
+++ b/src/main/webapp/resources/templates/template_점수.xlsx
@@ -2,94 +2,85 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A11FE3-098D-4B31-A1E7-A592C3A6164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31FB33A-22C2-45A9-9F78-8125E101F4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="2340" windowWidth="19200" windowHeight="11260" xr2:uid="{073ED44D-53CC-40F9-9CA2-F3555A1BD0B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>점수 정보</t>
+  </si>
+  <si>
+    <t>센터코드</t>
+  </si>
+  <si>
+    <t>점검년도</t>
+  </si>
+  <si>
+    <t>점검시즌</t>
+  </si>
+  <si>
+    <t>점검항목그룹코드</t>
+  </si>
+  <si>
+    <t>점검항목상세코드</t>
+  </si>
+  <si>
+    <t>점수</t>
+  </si>
+  <si>
+    <t>점검 담당자코드</t>
+  </si>
+  <si>
+    <t>입력 규칙</t>
+  </si>
+  <si>
+    <t>5행 부터 값 입력 시작</t>
+  </si>
+  <si>
+    <t>E열, F열 점수항목코드관리에 있는 코드 입력</t>
+  </si>
+  <si>
+    <t>B열, C열, D열, E열, F열 = 식별키</t>
+  </si>
+  <si>
+    <t>B열, C열, D열, E열, F열 같은 정보가 있으면 G열, H열 수정</t>
+  </si>
+  <si>
     <t>B열, C열, D열, E열, F열 같은 정보가 없으면 추가</t>
-  </si>
-  <si>
-    <t>점검 담당자코드</t>
-  </si>
-  <si>
-    <t>점검항목상세코드</t>
-  </si>
-  <si>
-    <t>점검항목그룹코드</t>
-  </si>
-  <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>B열, C열, D열, E열, F열 같은 정보가 있으면 G열, H열 수정</t>
-  </si>
-  <si>
-    <t>5행 부터 값 입력 시작</t>
-  </si>
-  <si>
-    <t>점검년도</t>
-  </si>
-  <si>
-    <t>점수 정보</t>
-  </si>
-  <si>
-    <t>입력 규칙</t>
-  </si>
-  <si>
-    <t>점검시즌</t>
-  </si>
-  <si>
-    <t>센터코드</t>
-  </si>
-  <si>
-    <t>B열, C열, D열, E열, F열 = 식별키</t>
-  </si>
-  <si>
-    <t>E열, F열 점수항목코드관리에 있는 코드 입력</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -101,7 +92,15 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="돋움"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -116,17 +115,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE5"/>
-        <bgColor auto="1"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE5"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,43 +157,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -217,44 +201,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -282,14 +266,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -317,6 +318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -328,194 +346,163 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AAF6E0-817E-47F7-9A29-52BE1E0FF15F}">
+  <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.58203125" customWidth="1"/>
-    <col min="10" max="10" width="54.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="3.58203125" customWidth="1"/>
+    <col min="10" max="10" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26" x14ac:dyDescent="0.65">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -524,112 +511,63 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
+    <row r="3" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J5" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J8" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J9" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J11" s="5"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G17" s="2"/>
-      <c r="H17"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>